--- a/output/KAPITALO_20008080000139.xlsx
+++ b/output/KAPITALO_20008080000139.xlsx
@@ -1263,10 +1263,10 @@
         <v>44165</v>
       </c>
       <c r="B80">
-        <v>1.3688484</v>
+        <v>1.3598753</v>
       </c>
       <c r="C80">
-        <v>0.0382870612211299</v>
+        <v>0.03435407267317436</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_20008080000139.xlsx
+++ b/output/KAPITALO_20008080000139.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO Z VOLANS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,887 +383,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41790</v>
       </c>
       <c r="B2">
-        <v>0.007513300000000056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41820</v>
       </c>
       <c r="B3">
-        <v>0.02472769999999991</v>
-      </c>
-      <c r="C3">
         <v>0.0170860275492144</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41851</v>
       </c>
       <c r="B4">
-        <v>0.05369899999999994</v>
-      </c>
-      <c r="C4">
         <v>0.02827219367642742</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41882</v>
       </c>
       <c r="B5">
-        <v>0.09406369999999997</v>
-      </c>
-      <c r="C5">
         <v>0.03830761915879211</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41912</v>
       </c>
       <c r="B6">
-        <v>0.02930889999999997</v>
-      </c>
-      <c r="C6">
         <v>-0.05918741294496843</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41943</v>
       </c>
       <c r="B7">
-        <v>0.02301479999999989</v>
-      </c>
-      <c r="C7">
         <v>-0.00611487960514101</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41973</v>
       </c>
       <c r="B8">
-        <v>0.00575009999999998</v>
-      </c>
-      <c r="C8">
         <v>-0.01687629543580393</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42004</v>
       </c>
       <c r="B9">
-        <v>0.007437499999999986</v>
-      </c>
-      <c r="C9">
         <v>0.001677752753889816</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42035</v>
       </c>
       <c r="B10">
-        <v>0.04007739999999993</v>
-      </c>
-      <c r="C10">
         <v>0.03239893293628637</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42063</v>
       </c>
       <c r="B11">
-        <v>0.07884019999999992</v>
-      </c>
-      <c r="C11">
         <v>0.03726914939215109</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42094</v>
       </c>
       <c r="B12">
-        <v>0.08516839999999992</v>
-      </c>
-      <c r="C12">
         <v>0.00586574360132297</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42124</v>
       </c>
       <c r="B13">
-        <v>0.06981710000000008</v>
-      </c>
-      <c r="C13">
         <v>-0.01414646795833696</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42155</v>
       </c>
       <c r="B14">
-        <v>0.1226669</v>
-      </c>
-      <c r="C14">
         <v>0.04940078075027965</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42185</v>
       </c>
       <c r="B15">
-        <v>0.08436270000000001</v>
-      </c>
-      <c r="C15">
         <v>-0.03411893590164639</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42216</v>
       </c>
       <c r="B16">
-        <v>0.159959</v>
-      </c>
-      <c r="C16">
         <v>0.06971495791952265</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42247</v>
       </c>
       <c r="B17">
-        <v>0.1157026000000001</v>
-      </c>
-      <c r="C17">
         <v>-0.03815341749148016</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42277</v>
       </c>
       <c r="B18">
-        <v>0.07728069999999998</v>
-      </c>
-      <c r="C18">
         <v>-0.03443740294232545</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42308</v>
       </c>
       <c r="B19">
-        <v>0.0619609000000001</v>
-      </c>
-      <c r="C19">
         <v>-0.01422080614643884</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42338</v>
       </c>
       <c r="B20">
-        <v>0.1553306999999999</v>
-      </c>
-      <c r="C20">
         <v>0.08792206944718939</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42369</v>
       </c>
       <c r="B21">
-        <v>0.1728228999999999</v>
-      </c>
-      <c r="C21">
         <v>0.01514042689249062</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42400</v>
       </c>
       <c r="B22">
-        <v>0.2582355999999999</v>
-      </c>
-      <c r="C22">
         <v>0.07282659641110345</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42429</v>
       </c>
       <c r="B23">
-        <v>0.2429257</v>
-      </c>
-      <c r="C23">
         <v>-0.01216775300269668</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42460</v>
       </c>
       <c r="B24">
-        <v>0.2305637</v>
-      </c>
-      <c r="C24">
         <v>-0.00994588815727282</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42490</v>
       </c>
       <c r="B25">
-        <v>0.2979807999999999</v>
-      </c>
-      <c r="C25">
         <v>0.05478554259320334</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42521</v>
       </c>
       <c r="B26">
-        <v>0.2936448</v>
-      </c>
-      <c r="C26">
         <v>-0.003340573296615745</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42551</v>
       </c>
       <c r="B27">
-        <v>0.3487491</v>
-      </c>
-      <c r="C27">
         <v>0.04259615931668415</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42582</v>
       </c>
       <c r="B28">
-        <v>0.3706232</v>
-      </c>
-      <c r="C28">
         <v>0.01621806457553898</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42613</v>
       </c>
       <c r="B29">
-        <v>0.4241613</v>
-      </c>
-      <c r="C29">
         <v>0.03906113656911692</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42643</v>
       </c>
       <c r="B30">
-        <v>0.4517628</v>
-      </c>
-      <c r="C30">
         <v>0.01938088052245202</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42674</v>
       </c>
       <c r="B31">
-        <v>0.5412547999999999</v>
-      </c>
-      <c r="C31">
         <v>0.06164367898116674</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42704</v>
       </c>
       <c r="B32">
-        <v>0.5370132000000001</v>
-      </c>
-      <c r="C32">
         <v>-0.002752043335079835</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42735</v>
       </c>
       <c r="B33">
-        <v>0.5849797999999999</v>
-      </c>
-      <c r="C33">
         <v>0.03120766952424336</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42766</v>
       </c>
       <c r="B34">
-        <v>0.6662656</v>
-      </c>
-      <c r="C34">
         <v>0.05128507000530869</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42794</v>
       </c>
       <c r="B35">
-        <v>0.7279974</v>
-      </c>
-      <c r="C35">
         <v>0.03704799522957214</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42825</v>
       </c>
       <c r="B36">
-        <v>0.7494584</v>
-      </c>
-      <c r="C36">
         <v>0.01241957887205158</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42855</v>
       </c>
       <c r="B37">
-        <v>0.7270084999999999</v>
-      </c>
-      <c r="C37">
         <v>-0.01283248575673479</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42886</v>
       </c>
       <c r="B38">
-        <v>0.6858508000000001</v>
-      </c>
-      <c r="C38">
         <v>-0.02383178774163519</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42916</v>
       </c>
       <c r="B39">
-        <v>0.7351399999999999</v>
-      </c>
-      <c r="C39">
         <v>0.02923698823169874</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42947</v>
       </c>
       <c r="B40">
-        <v>0.8163001999999999</v>
-      </c>
-      <c r="C40">
         <v>0.04677443895017119</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42978</v>
       </c>
       <c r="B41">
-        <v>0.8453098999999999</v>
-      </c>
-      <c r="C41">
         <v>0.01597186412246177</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43008</v>
       </c>
       <c r="B42">
-        <v>0.9202873</v>
-      </c>
-      <c r="C42">
         <v>0.04063133243906614</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43039</v>
       </c>
       <c r="B43">
-        <v>0.8995282</v>
-      </c>
-      <c r="C43">
         <v>-0.01081041362925228</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43069</v>
       </c>
       <c r="B44">
-        <v>0.8923418999999999</v>
-      </c>
-      <c r="C44">
         <v>-0.003783202586831846</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43100</v>
       </c>
       <c r="B45">
-        <v>0.9004386</v>
-      </c>
-      <c r="C45">
         <v>0.004278666555974864</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43131</v>
       </c>
       <c r="B46">
-        <v>0.9994430000000001</v>
-      </c>
-      <c r="C46">
         <v>0.05209555310021607</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43159</v>
       </c>
       <c r="B47">
-        <v>1.0604795</v>
-      </c>
-      <c r="C47">
         <v>0.03052675170034846</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43190</v>
       </c>
       <c r="B48">
-        <v>1.1366502</v>
-      </c>
-      <c r="C48">
         <v>0.0369674631560275</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43220</v>
       </c>
       <c r="B49">
-        <v>1.197837</v>
-      </c>
-      <c r="C49">
         <v>0.0286367885580896</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43251</v>
       </c>
       <c r="B50">
-        <v>1.1339989</v>
-      </c>
-      <c r="C50">
         <v>-0.02904587555856053</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43281</v>
       </c>
       <c r="B51">
-        <v>1.188574</v>
-      </c>
-      <c r="C51">
         <v>0.02557409940558086</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43312</v>
       </c>
       <c r="B52">
-        <v>1.2242082</v>
-      </c>
-      <c r="C52">
         <v>0.01628192603951262</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43343</v>
       </c>
       <c r="B53">
-        <v>1.2173653</v>
-      </c>
-      <c r="C53">
         <v>-0.003076555513103485</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43373</v>
       </c>
       <c r="B54">
-        <v>1.270407</v>
-      </c>
-      <c r="C54">
         <v>0.02392104719957522</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43404</v>
       </c>
       <c r="B55">
-        <v>1.3467467</v>
-      </c>
-      <c r="C55">
         <v>0.03362379520500069</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43434</v>
       </c>
       <c r="B56">
-        <v>1.2851122</v>
-      </c>
-      <c r="C56">
         <v>-0.02626380597445832</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43465</v>
       </c>
       <c r="B57">
-        <v>1.239708</v>
-      </c>
-      <c r="C57">
         <v>-0.01986957139347478</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43496</v>
       </c>
       <c r="B58">
-        <v>1.338574</v>
-      </c>
-      <c r="C58">
         <v>0.0441423614149703</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43524</v>
       </c>
       <c r="B59">
-        <v>1.3563788</v>
-      </c>
-      <c r="C59">
         <v>0.007613528586223994</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43555</v>
       </c>
       <c r="B60">
-        <v>1.3515852</v>
-      </c>
-      <c r="C60">
         <v>-0.00203430789650616</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43585</v>
       </c>
       <c r="B61">
-        <v>1.3486821</v>
-      </c>
-      <c r="C61">
         <v>-0.001234528946686742</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43616</v>
       </c>
       <c r="B62">
-        <v>1.3372087</v>
-      </c>
-      <c r="C62">
         <v>-0.004885037442913132</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43646</v>
       </c>
       <c r="B63">
-        <v>1.4295335</v>
-      </c>
-      <c r="C63">
         <v>0.03950216341399027</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43677</v>
       </c>
       <c r="B64">
-        <v>1.4098532</v>
-      </c>
-      <c r="C64">
         <v>-0.008100443974120797</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43708</v>
       </c>
       <c r="B65">
-        <v>1.4139697</v>
-      </c>
-      <c r="C65">
         <v>0.001708195337375651</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43738</v>
       </c>
       <c r="B66">
-        <v>1.4429426</v>
-      </c>
-      <c r="C66">
         <v>0.01200218047475898</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43769</v>
       </c>
       <c r="B67">
-        <v>1.5154238</v>
-      </c>
-      <c r="C67">
         <v>0.02966962875018031</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43799</v>
       </c>
       <c r="B68">
-        <v>1.5112047</v>
-      </c>
-      <c r="C68">
         <v>-0.001677291913990908</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43830</v>
       </c>
       <c r="B69">
-        <v>1.5911517</v>
-      </c>
-      <c r="C69">
         <v>0.03183611435579126</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43861</v>
       </c>
       <c r="B70">
-        <v>1.5371363</v>
-      </c>
-      <c r="C70">
         <v>-0.02084609712353025</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43890</v>
       </c>
       <c r="B71">
-        <v>1.4618963</v>
-      </c>
-      <c r="C71">
         <v>-0.02965548204879653</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43921</v>
       </c>
       <c r="B72">
-        <v>1.1956096</v>
-      </c>
-      <c r="C72">
         <v>-0.1081632479808349</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43951</v>
       </c>
       <c r="B73">
-        <v>1.2407343</v>
-      </c>
-      <c r="C73">
         <v>0.02055224207436512</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43982</v>
       </c>
       <c r="B74">
-        <v>1.2958613</v>
-      </c>
-      <c r="C74">
         <v>0.02460220294748905</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>44012</v>
       </c>
       <c r="B75">
-        <v>1.2895276</v>
-      </c>
-      <c r="C75">
         <v>-0.002758746793632527</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>44043</v>
       </c>
       <c r="B76">
-        <v>1.3558419</v>
-      </c>
-      <c r="C76">
         <v>0.02896418457676608</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>44074</v>
       </c>
       <c r="B77">
-        <v>1.376446</v>
-      </c>
-      <c r="C77">
         <v>0.008745960414406451</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>44104</v>
       </c>
       <c r="B78">
-        <v>1.300235</v>
-      </c>
-      <c r="C78">
         <v>-0.03206931695481419</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44135</v>
       </c>
       <c r="B79">
-        <v>1.2814966</v>
-      </c>
-      <c r="C79">
         <v>-0.008146298095629279</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44165</v>
       </c>
       <c r="B80">
-        <v>1.3598753</v>
-      </c>
-      <c r="C80">
-        <v>0.03435407267317436</v>
+        <v>0.02413152840113808</v>
       </c>
     </row>
   </sheetData>
